--- a/method_comparison_summary.xlsx
+++ b/method_comparison_summary.xlsx
@@ -477,16 +477,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.004948999999999997</v>
+        <v>0.009104374999999996</v>
       </c>
       <c r="D2" t="n">
-        <v>72.97304085828368</v>
+        <v>113.0392642866672</v>
       </c>
       <c r="E2" t="n">
-        <v>0.006632593151751936</v>
+        <v>0.01091048274023656</v>
       </c>
       <c r="F2" t="n">
-        <v>0.004948999999999997</v>
+        <v>0.009104374999999996</v>
       </c>
     </row>
     <row r="3">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.004948999999999997</v>
+        <v>0.009104374999999993</v>
       </c>
       <c r="D3" t="n">
-        <v>72.97304085828368</v>
+        <v>113.0392642866672</v>
       </c>
       <c r="E3" t="n">
-        <v>0.006632593151751936</v>
+        <v>0.01091048274023656</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004948999999999997</v>
+        <v>0.009104374999999993</v>
       </c>
     </row>
     <row r="4">
@@ -525,16 +525,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.004948999999999997</v>
+        <v>0.009104374999999994</v>
       </c>
       <c r="D4" t="n">
-        <v>72.97304085828368</v>
+        <v>113.0392642866672</v>
       </c>
       <c r="E4" t="n">
-        <v>0.006632593151751936</v>
+        <v>0.01091048274023656</v>
       </c>
       <c r="F4" t="n">
-        <v>0.004948999999999997</v>
+        <v>0.009104374999999994</v>
       </c>
     </row>
   </sheetData>

--- a/method_comparison_summary.xlsx
+++ b/method_comparison_summary.xlsx
@@ -477,16 +477,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.009104374999999996</v>
+        <v>0.008981458333333329</v>
       </c>
       <c r="D2" t="n">
-        <v>113.0392642866672</v>
+        <v>118.5795307831199</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01091048274023656</v>
+        <v>0.01079457470020627</v>
       </c>
       <c r="F2" t="n">
-        <v>0.009104374999999996</v>
+        <v>0.008981458333333329</v>
       </c>
     </row>
     <row r="3">
@@ -501,16 +501,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.009104374999999993</v>
+        <v>0.008981458333333331</v>
       </c>
       <c r="D3" t="n">
-        <v>113.0392642866672</v>
+        <v>118.5795307831199</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01091048274023656</v>
+        <v>0.01079457470020627</v>
       </c>
       <c r="F3" t="n">
-        <v>0.009104374999999993</v>
+        <v>0.008981458333333331</v>
       </c>
     </row>
     <row r="4">
@@ -525,16 +525,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.009104374999999994</v>
+        <v>0.008981458333333329</v>
       </c>
       <c r="D4" t="n">
-        <v>113.0392642866672</v>
+        <v>118.5795307831199</v>
       </c>
       <c r="E4" t="n">
-        <v>0.01091048274023656</v>
+        <v>0.01079457470020627</v>
       </c>
       <c r="F4" t="n">
-        <v>0.009104374999999994</v>
+        <v>0.008981458333333329</v>
       </c>
     </row>
   </sheetData>
